--- a/5. RSA Assignment 2 - Graphing/Graphs.xlsx
+++ b/5. RSA Assignment 2 - Graphing/Graphs.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -705,11 +705,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2041184912"/>
-        <c:axId val="2042664080"/>
+        <c:axId val="-159706592"/>
+        <c:axId val="-159704272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2041184912"/>
+        <c:axId val="-159706592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -752,7 +752,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2042664080"/>
+        <c:crossAx val="-159704272"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -761,7 +761,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2042664080"/>
+        <c:axId val="-159704272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1500.0"/>
@@ -813,7 +813,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2041184912"/>
+        <c:crossAx val="-159706592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1265,11 +1265,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1970192624"/>
-        <c:axId val="1970194400"/>
+        <c:axId val="-159677856"/>
+        <c:axId val="-159675536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1970192624"/>
+        <c:axId val="-159677856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1312,7 +1312,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1970194400"/>
+        <c:crossAx val="-159675536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1320,7 +1320,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1970194400"/>
+        <c:axId val="-159675536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1370,7 +1370,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1970192624"/>
+        <c:crossAx val="-159677856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1785,11 +1785,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2038577632"/>
-        <c:axId val="2045351952"/>
+        <c:axId val="-159655344"/>
+        <c:axId val="-159653024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2038577632"/>
+        <c:axId val="-159655344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1832,7 +1832,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2045351952"/>
+        <c:crossAx val="-159653024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1840,7 +1840,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2045351952"/>
+        <c:axId val="-159653024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1890,7 +1890,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2038577632"/>
+        <c:crossAx val="-159655344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4192,7 +4192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I6" workbookViewId="0">
       <selection activeCell="AA35" sqref="AA35"/>
     </sheetView>
   </sheetViews>

--- a/5. RSA Assignment 2 - Graphing/Graphs.xlsx
+++ b/5. RSA Assignment 2 - Graphing/Graphs.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15440" tabRatio="993" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15440" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
   <si>
     <t>Time: 0.00034165382385253906        Modulus Size: 10</t>
   </si>
@@ -705,11 +706,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-159706592"/>
-        <c:axId val="-159704272"/>
+        <c:axId val="-511831712"/>
+        <c:axId val="-490523632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-159706592"/>
+        <c:axId val="-511831712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -752,7 +753,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-159704272"/>
+        <c:crossAx val="-490523632"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -761,7 +762,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-159704272"/>
+        <c:axId val="-490523632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1500.0"/>
@@ -813,7 +814,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-159706592"/>
+        <c:crossAx val="-511831712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1265,11 +1266,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-159677856"/>
-        <c:axId val="-159675536"/>
+        <c:axId val="-490494704"/>
+        <c:axId val="-490491952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-159677856"/>
+        <c:axId val="-490494704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1312,7 +1313,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-159675536"/>
+        <c:crossAx val="-490491952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1320,7 +1321,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-159675536"/>
+        <c:axId val="-490491952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1370,7 +1371,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-159677856"/>
+        <c:crossAx val="-490494704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1785,11 +1786,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-159655344"/>
-        <c:axId val="-159653024"/>
+        <c:axId val="-490471776"/>
+        <c:axId val="-490469024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-159655344"/>
+        <c:axId val="-490471776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1832,7 +1833,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-159653024"/>
+        <c:crossAx val="-490469024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1840,7 +1841,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-159653024"/>
+        <c:axId val="-490469024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1890,9 +1891,574 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-159655344"/>
+        <c:crossAx val="-490471776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>“bit length of m” vs “log(time)”</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.000341653823852539</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0020599365234375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0020146369934082</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00149464607238769</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00178313255310058</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00239205360412597</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00269031524658203</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.00172257423400878</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.00176215171813964</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.00184440612792968</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.00186848640441894</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.00194454193115234</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0486340522766113</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0134730339050292</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0118746757507324</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.122797489166259</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.00210118293762207</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.145435571670532</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.596275806427002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.607697010040283</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.945936203002929</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.101813554763793</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.237977981567382</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.421348094940185</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.96650624275207</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.425416946411132</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.17825317382812</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.14046287536621</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17.3018038272857</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.41849660873413</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.17500591278076</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.12878942489624</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.58053183555603</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.95199632644653</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.601933002471923</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>217.036727428436</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.7210066318511</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>86.9551994800567</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.651933908462524</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1400.92497181892</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>180.29268836975</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-418794800"/>
+        <c:axId val="-418796848"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-418794800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-418796848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-418796848"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1500.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-418794800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2059,6 +2625,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3588,6 +4194,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3694,6 +4816,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4192,8 +5349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I6" workbookViewId="0">
-      <selection activeCell="AA35" sqref="AA35"/>
+    <sheetView topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4999,4 +6156,356 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>3.4165382385253901E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>2.0599365234375E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>2.0146369934082001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>1.4946460723876901E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>1.7831325531005801E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>2.3920536041259701E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>2.6903152465820299E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>1.72257423400878E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>1.76215171813964E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>1.8444061279296799E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>1.8684864044189401E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>1.9445419311523401E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>4.86340522766113E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>1.34730339050292E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>1.1874675750732399E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>0.122797489166259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>2.1011829376220699E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>0.145435571670532</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0.59627580642700195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>0.60769701004028298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>0.94593620300292902</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>0.101813554763793</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>0.23797798156738201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>0.42134809494018499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>1.9665062427520701</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>0.42541694641113198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>6.1782531738281197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>1.14046287536621</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>17.301803827285699</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>9.4184966087341309</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>1.1750059127807599</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>6.1287894248962402</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>0.58053183555603005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>4.9519963264465297</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>0.60193300247192305</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>217.036727428436</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>10.7210066318511</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>86.955199480056706</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>0.65193390846252397</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>1400.9249718189201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>180.29268836975001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>